--- a/tables/TableS1_fmp_traits.xlsx
+++ b/tables/TableS1_fmp_traits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68DB4C4-973F-924B-B05F-B66F957813BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987E7A94-D2F7-4C45-A88A-D789ECDEA056}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="22360" windowHeight="20180" xr2:uid="{03671730-C968-2140-A270-7F6D959AD332}"/>
+    <workbookView xWindow="10500" yWindow="500" windowWidth="22360" windowHeight="20180" xr2:uid="{03671730-C968-2140-A270-7F6D959AD332}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -438,9 +438,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -478,7 +478,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -584,7 +584,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -726,7 +726,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/tables/TableS1_fmp_traits.xlsx
+++ b/tables/TableS1_fmp_traits.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987E7A94-D2F7-4C45-A88A-D789ECDEA056}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17ADD00-FF1C-4842-83D1-9572A11973CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10500" yWindow="500" windowWidth="22360" windowHeight="20180" xr2:uid="{03671730-C968-2140-A270-7F6D959AD332}"/>
   </bookViews>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -395,9 +395,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -438,9 +438,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -478,7 +478,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -584,7 +584,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -726,7 +726,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -737,7 +737,7 @@
   <dimension ref="B1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tables/TableS1_fmp_traits.xlsx
+++ b/tables/TableS1_fmp_traits.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17ADD00-FF1C-4842-83D1-9572A11973CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789A7C56-847C-0446-B328-D52B91EE64DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="500" windowWidth="22360" windowHeight="20180" xr2:uid="{03671730-C968-2140-A270-7F6D959AD332}"/>
+    <workbookView xWindow="34500" yWindow="1040" windowWidth="24620" windowHeight="21680" xr2:uid="{03671730-C968-2140-A270-7F6D959AD332}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -438,9 +427,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -478,7 +467,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -584,7 +573,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -726,7 +715,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -737,7 +726,7 @@
   <dimension ref="B1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1377,7 +1366,9 @@
         <v>2009</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+      <c r="E47" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
@@ -1387,7 +1378,9 @@
         <v>2009</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
+      <c r="E48" s="9">
+        <v>15</v>
+      </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
@@ -1397,7 +1390,9 @@
         <v>2009</v>
       </c>
       <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+      <c r="E49" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
@@ -1407,7 +1402,9 @@
         <v>2009</v>
       </c>
       <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="E50" s="9">
+        <v>16</v>
+      </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
@@ -1417,7 +1414,9 @@
         <v>2009</v>
       </c>
       <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
+      <c r="E51" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D52" s="12"/>
